--- a/data/trans_bre/P17_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P17_R2-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.848534762135762</v>
+        <v>3.827152830366003</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.92237707580618</v>
+        <v>1.87165244988019</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.357463140678152</v>
+        <v>4.388157465778252</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.541218419230025</v>
+        <v>-3.933141893506887</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3190835025097227</v>
+        <v>0.3124491245142301</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.119091407007358</v>
+        <v>0.1003857199905831</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2886616177783395</v>
+        <v>0.2825221179681437</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3195545488428672</v>
+        <v>-0.3631464909694147</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.80512615658352</v>
+        <v>12.73648421364343</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.8213343782536</v>
+        <v>12.06630841554221</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.26898264596186</v>
+        <v>15.09343470099738</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.328964835220667</v>
+        <v>9.442012235509052</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.585144637683567</v>
+        <v>1.618529765414592</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.050319533197601</v>
+        <v>1.030575872789947</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.584126321134627</v>
+        <v>1.51221179108263</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.558123045336948</v>
+        <v>1.707215301621269</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8.136144208579008</v>
+        <v>8.023763002961134</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>10.63513168977627</v>
+        <v>10.89729973686653</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.459347869635205</v>
+        <v>-0.3851560977904755</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.702172914208447</v>
+        <v>7.741684139826377</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3058712158697548</v>
+        <v>0.3158035968550319</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3667388993384529</v>
+        <v>0.3863875149506119</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.01731571481057175</v>
+        <v>-0.01610524567536815</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4417708843642134</v>
+        <v>0.4193985225802175</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>18.16523965302163</v>
+        <v>17.73758043860193</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>21.44814940977295</v>
+        <v>21.6518130084005</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.904680497276724</v>
+        <v>9.869873014205348</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20.05392837403374</v>
+        <v>20.20297824225055</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8612588121002148</v>
+        <v>0.8467427093858896</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9010628237378872</v>
+        <v>0.9230879682067006</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4471103156016369</v>
+        <v>0.4408212125167116</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.148511048523239</v>
+        <v>2.083290407008424</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>0.5592400126221947</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.5906777704603833</v>
+        <v>0.5906777704603834</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.850009884913302</v>
+        <v>9.169209988260638</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.644502148726984</v>
+        <v>8.525149711270762</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.289004863822392</v>
+        <v>7.087305582862478</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7.039558723498277</v>
+        <v>7.23678612792536</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2500449195328776</v>
+        <v>0.2650247458500666</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2245919844942315</v>
+        <v>0.2195695249236363</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3014291620120075</v>
+        <v>0.305615906639451</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.3051004831335346</v>
+        <v>0.3066558437837654</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>19.63675168825998</v>
+        <v>20.24563142524637</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>20.40838975306114</v>
+        <v>19.34237695852431</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.58039792172204</v>
+        <v>16.50261329326664</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16.73584871838937</v>
+        <v>17.05721085431989</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.667923249794914</v>
+        <v>0.6846408230698801</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5900459192648894</v>
+        <v>0.5528366139853852</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8984579416375742</v>
+        <v>0.869824721423872</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.9438872655766222</v>
+        <v>0.9653089391523603</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>6.129211962428554</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.730777039869387</v>
+        <v>5.730777039869384</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3144194294176654</v>
@@ -949,7 +949,7 @@
         <v>0.3836821482325866</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3036586247589486</v>
+        <v>0.3036586247589485</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.662460710932029</v>
+        <v>1.919959839163818</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.145915257585286</v>
+        <v>2.463660522372409</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.994387970709856</v>
+        <v>1.844204700352704</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.687136377679805</v>
+        <v>1.206104321858686</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.09122474944302386</v>
+        <v>0.0710193316234891</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06604333536441395</v>
+        <v>0.08395069156264026</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1063132201706835</v>
+        <v>0.09991095681370456</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.07771885817176401</v>
+        <v>0.05325366393196868</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>13.30789635811762</v>
+        <v>13.33011689096672</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.94804152261789</v>
+        <v>14.16488918163107</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.90326293942842</v>
+        <v>10.87809655206659</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.828102362441351</v>
+        <v>9.812025614234992</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.607630648595894</v>
+        <v>0.604793605711974</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5485759845556631</v>
+        <v>0.570618905107388</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8271416003284529</v>
+        <v>0.8309363421200494</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6121801199577493</v>
+        <v>0.595808141764015</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.423090896919533</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.434643545926478</v>
+        <v>5.43464354592648</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1126783590547373</v>
@@ -1049,7 +1049,7 @@
         <v>0.1475189026040666</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4749700453237118</v>
+        <v>0.4749700453237121</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.907745400509187</v>
+        <v>-3.808746000053045</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.882383445947581</v>
+        <v>-4.021168843815595</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.210197213738607</v>
+        <v>-2.874231575764602</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.586961843639501</v>
+        <v>1.716087466985971</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1201943087280768</v>
+        <v>-0.1415066188363276</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.166604499836357</v>
+        <v>-0.1620130764577447</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1654075893643275</v>
+        <v>-0.1458535565735122</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1154001664743844</v>
+        <v>0.1278979939832073</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.779667866476991</v>
+        <v>8.478394244209008</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.871405444096927</v>
+        <v>7.945297286309764</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.122127946650318</v>
+        <v>7.425657675115326</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.931281889557157</v>
+        <v>8.773480724699935</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.449076414545785</v>
+        <v>0.4297845502248324</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4331988445649431</v>
+        <v>0.4166492846680109</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5140245788477376</v>
+        <v>0.5389152594578628</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.9350099438855457</v>
+        <v>0.9308082228454568</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-1.741010195358761</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-1.401518001019213</v>
+        <v>-1.401518001019215</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.008844025114099279</v>
@@ -1149,7 +1149,7 @@
         <v>-0.1014136456841198</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.1066619237842568</v>
+        <v>-0.106661923784257</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-5.910000671457236</v>
+        <v>-6.532565643089488</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-4.859352989688454</v>
+        <v>-5.76142462849961</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-7.853151889513368</v>
+        <v>-7.670805744918321</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-5.108020794357473</v>
+        <v>-5.42177389934128</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2100747603622799</v>
+        <v>-0.2201914361977979</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2054573224149238</v>
+        <v>-0.2413572406361116</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3721157249916824</v>
+        <v>-0.3805837466211707</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.328902577637828</v>
+        <v>-0.350113391420461</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.884310050414881</v>
+        <v>6.45159975562837</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.194802526414366</v>
+        <v>7.502505575515145</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.475551147539849</v>
+        <v>4.047672129830318</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2.338746955838464</v>
+        <v>2.219734536425439</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3226379728340761</v>
+        <v>0.2946333105892214</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5084610630149221</v>
+        <v>0.4430735734483601</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2519611556773907</v>
+        <v>0.2869322474967523</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2116246775644201</v>
+        <v>0.2024076146154157</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-2.640764653738094</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-6.633095733258319</v>
+        <v>-6.633095733258318</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.3552469136675256</v>
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-15.55653405098822</v>
+        <v>-15.40619213217485</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-9.567897182036608</v>
+        <v>-8.807408493077848</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.862693764400073</v>
+        <v>-8.165209311842892</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-10.63545036418107</v>
+        <v>-10.70145571130876</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.5445496736222315</v>
+        <v>-0.5492208594061996</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.43729755056284</v>
+        <v>-0.4075964891424684</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.4660658880194836</v>
+        <v>-0.4814622827383997</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.6529740137281671</v>
+        <v>-0.6566323331815433</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-1.214903443949309</v>
+        <v>-0.9688894136508671</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.834045013224543</v>
+        <v>3.611167298839777</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.001098135102053</v>
+        <v>2.71064432147812</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-2.82642566696031</v>
+        <v>-2.767477494328832</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.04843631323799438</v>
+        <v>-0.04849826076782869</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3360179857677829</v>
+        <v>0.2942525208527314</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2864857600000112</v>
+        <v>0.2564112182008958</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.2626099236284239</v>
+        <v>-0.2601694077596843</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>4.817720418121918</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5.31944342993167</v>
+        <v>5.319443429931664</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3195481045579387</v>
@@ -1349,7 +1349,7 @@
         <v>0.2652833477245357</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.3595483620201977</v>
+        <v>0.3595483620201973</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>5.526723917262938</v>
+        <v>5.381880795927187</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>5.623586214978195</v>
+        <v>5.484738750019261</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2.742931503480389</v>
+        <v>2.963478501657956</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3.324336696679285</v>
+        <v>3.561000091092486</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2261103850734053</v>
+        <v>0.2195100724494042</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2146797903624088</v>
+        <v>0.2051686661903757</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1458478895300017</v>
+        <v>0.1540698142444764</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2060051170723199</v>
+        <v>0.2245173203713413</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>9.685094990087006</v>
+        <v>9.556684660702535</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>9.861605400125848</v>
+        <v>10.09016853354688</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6.545935835856567</v>
+        <v>6.955172278026993</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7.061112207777749</v>
+        <v>7.054609400004964</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4353152470057114</v>
+        <v>0.4277518790582679</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4075365743779569</v>
+        <v>0.4162947193541596</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3853977320088292</v>
+        <v>0.4102707238305646</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5113152391919674</v>
+        <v>0.5281348866529286</v>
       </c>
     </row>
     <row r="28">
